--- a/Documents/SRS/SRS document group 8.xlsx
+++ b/Documents/SRS/SRS document group 8.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Sprint2\19-11-2022\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Sprint2\19-11-2022\Documents\SRS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80F2AF25-14CC-4D94-9393-425477C4DF78}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3051E162-4D1F-4BEF-A9D3-F95391F50CF2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="20700" windowHeight="7755" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -123,15 +123,9 @@
 Correct username and password is required to login to have authentication.</t>
   </si>
   <si>
-    <t>Optional</t>
-  </si>
-  <si>
     <t>SRS_02</t>
   </si>
   <si>
-    <t>Creation of socket for the both client and server modules</t>
-  </si>
-  <si>
     <t>Mandatory</t>
   </si>
   <si>
@@ -147,14 +141,7 @@
     <t>SRS_04</t>
   </si>
   <si>
-    <t>client Socket Creation:
-creating a socket with three parameters (communication domain, type, protocol)</t>
-  </si>
-  <si>
     <t>SRS_05</t>
-  </si>
-  <si>
-    <t>server Socket creation: create a socket for the Server side using the sock() functionality</t>
   </si>
   <si>
     <t>SRS_06</t>
@@ -193,25 +180,42 @@
     <t>SRS_10</t>
   </si>
   <si>
-    <t>Files sent from the server are stored in a directory which can be accessed by the server and the client.</t>
-  </si>
-  <si>
-    <t>SRS_11</t>
-  </si>
-  <si>
     <t xml:space="preserve">provide the server side, upload functionality to upload() the files back to the client. </t>
   </si>
   <si>
-    <t>Login and  register, client side socket</t>
-  </si>
-  <si>
-    <t>upload, Display files</t>
-  </si>
-  <si>
-    <t>Download, Delete files</t>
-  </si>
-  <si>
-    <t>Database, server side socket</t>
+    <t>Login and  register, Display files</t>
+  </si>
+  <si>
+    <t>operations menu, Logger</t>
+  </si>
+  <si>
+    <t>Server &amp; client side socket, Client choice validation in server</t>
+  </si>
+  <si>
+    <t>Upload, Download &amp; Delete files</t>
+  </si>
+  <si>
+    <t>creating a socket with three parameters (communication domain, type, protocol)</t>
+  </si>
+  <si>
+    <t>Registration:
+If client is a new user, Register with new username &amp; password</t>
+  </si>
+  <si>
+    <t>Server Socket Creation:
+creating a socket with three parameters (communication domain, type, protocol)</t>
+  </si>
+  <si>
+    <t>Socket bind:
+bind()reserves port for the socket.  It has three parameters socket identifier, struct sockaadr_in,  the port of the machine and size of the sockaddr structure</t>
+  </si>
+  <si>
+    <t>Socket accept:
+Accepting the connection from client.</t>
+  </si>
+  <si>
+    <t>provide the client to delete files using delete() command. 
+If user input filename doesn’t exist, pop up error, file not found</t>
   </si>
 </sst>
 </file>
@@ -350,7 +354,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -488,11 +492,61 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -501,12 +555,6 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -540,103 +588,133 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -857,42 +935,42 @@
   </sheetPr>
   <dimension ref="D4:Q30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18:N18"/>
+    <sheetView topLeftCell="H6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L19" sqref="L19:N19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="4" spans="4:17" ht="15.75" customHeight="1">
       <c r="D4" s="1"/>
-      <c r="E4" s="55" t="s">
+      <c r="E4" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
-      <c r="I4" s="37"/>
-      <c r="J4" s="37"/>
-      <c r="K4" s="37"/>
-      <c r="L4" s="37"/>
-      <c r="M4" s="37"/>
-      <c r="N4" s="37"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="27"/>
+      <c r="J4" s="27"/>
+      <c r="K4" s="27"/>
+      <c r="L4" s="27"/>
+      <c r="M4" s="27"/>
+      <c r="N4" s="27"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
     </row>
     <row r="5" spans="4:17" ht="15.75" customHeight="1">
       <c r="D5" s="1"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="37"/>
-      <c r="H5" s="37"/>
-      <c r="I5" s="37"/>
-      <c r="J5" s="37"/>
-      <c r="K5" s="37"/>
-      <c r="L5" s="37"/>
-      <c r="M5" s="37"/>
-      <c r="N5" s="37"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="27"/>
+      <c r="I5" s="27"/>
+      <c r="J5" s="27"/>
+      <c r="K5" s="27"/>
+      <c r="L5" s="27"/>
+      <c r="M5" s="27"/>
+      <c r="N5" s="27"/>
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
@@ -915,102 +993,102 @@
     </row>
     <row r="7" spans="4:17" ht="15.75" customHeight="1">
       <c r="D7" s="4"/>
-      <c r="E7" s="48" t="s">
+      <c r="E7" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="F7" s="34"/>
-      <c r="G7" s="34"/>
-      <c r="H7" s="34"/>
-      <c r="I7" s="35"/>
-      <c r="J7" s="56" t="s">
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="30"/>
+      <c r="J7" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="K7" s="51"/>
-      <c r="L7" s="51"/>
-      <c r="M7" s="51"/>
-      <c r="N7" s="51"/>
-      <c r="O7" s="51"/>
-      <c r="P7" s="52"/>
+      <c r="K7" s="32"/>
+      <c r="L7" s="32"/>
+      <c r="M7" s="32"/>
+      <c r="N7" s="32"/>
+      <c r="O7" s="32"/>
+      <c r="P7" s="33"/>
       <c r="Q7" s="1"/>
     </row>
     <row r="8" spans="4:17" ht="15.75" customHeight="1">
       <c r="D8" s="4"/>
-      <c r="E8" s="48" t="s">
+      <c r="E8" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="F8" s="34"/>
-      <c r="G8" s="34"/>
-      <c r="H8" s="34"/>
-      <c r="I8" s="35"/>
-      <c r="J8" s="54" t="s">
+      <c r="F8" s="29"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="30"/>
+      <c r="J8" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="K8" s="51"/>
-      <c r="L8" s="51"/>
-      <c r="M8" s="51"/>
-      <c r="N8" s="51"/>
-      <c r="O8" s="51"/>
-      <c r="P8" s="52"/>
+      <c r="K8" s="32"/>
+      <c r="L8" s="32"/>
+      <c r="M8" s="32"/>
+      <c r="N8" s="32"/>
+      <c r="O8" s="32"/>
+      <c r="P8" s="33"/>
       <c r="Q8" s="1"/>
     </row>
     <row r="9" spans="4:17" ht="15.75" customHeight="1">
       <c r="D9" s="4"/>
-      <c r="E9" s="48" t="s">
+      <c r="E9" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="34"/>
-      <c r="G9" s="34"/>
-      <c r="H9" s="34"/>
-      <c r="I9" s="35"/>
-      <c r="J9" s="50">
+      <c r="F9" s="29"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="35">
         <v>0.1</v>
       </c>
-      <c r="K9" s="51"/>
-      <c r="L9" s="51"/>
-      <c r="M9" s="51"/>
-      <c r="N9" s="51"/>
-      <c r="O9" s="51"/>
-      <c r="P9" s="52"/>
+      <c r="K9" s="32"/>
+      <c r="L9" s="32"/>
+      <c r="M9" s="32"/>
+      <c r="N9" s="32"/>
+      <c r="O9" s="32"/>
+      <c r="P9" s="33"/>
       <c r="Q9" s="1"/>
     </row>
     <row r="10" spans="4:17" ht="15.75" customHeight="1">
       <c r="D10" s="4"/>
-      <c r="E10" s="48" t="s">
+      <c r="E10" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="F10" s="34"/>
-      <c r="G10" s="34"/>
-      <c r="H10" s="34"/>
-      <c r="I10" s="35"/>
-      <c r="J10" s="53">
+      <c r="F10" s="29"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="29"/>
+      <c r="I10" s="30"/>
+      <c r="J10" s="36">
         <v>0.1</v>
       </c>
-      <c r="K10" s="51"/>
-      <c r="L10" s="51"/>
-      <c r="M10" s="51"/>
-      <c r="N10" s="51"/>
-      <c r="O10" s="51"/>
-      <c r="P10" s="52"/>
+      <c r="K10" s="32"/>
+      <c r="L10" s="32"/>
+      <c r="M10" s="32"/>
+      <c r="N10" s="32"/>
+      <c r="O10" s="32"/>
+      <c r="P10" s="33"/>
       <c r="Q10" s="1"/>
     </row>
     <row r="11" spans="4:17" ht="15.75" customHeight="1">
       <c r="D11" s="4"/>
-      <c r="E11" s="48" t="s">
+      <c r="E11" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="F11" s="34"/>
-      <c r="G11" s="34"/>
-      <c r="H11" s="34"/>
-      <c r="I11" s="35"/>
-      <c r="J11" s="54" t="s">
+      <c r="F11" s="29"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="30"/>
+      <c r="J11" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="K11" s="51"/>
-      <c r="L11" s="51"/>
-      <c r="M11" s="51"/>
-      <c r="N11" s="51"/>
-      <c r="O11" s="51"/>
-      <c r="P11" s="52"/>
+      <c r="K11" s="32"/>
+      <c r="L11" s="32"/>
+      <c r="M11" s="32"/>
+      <c r="N11" s="32"/>
+      <c r="O11" s="32"/>
+      <c r="P11" s="33"/>
       <c r="Q11" s="1"/>
     </row>
     <row r="12" spans="4:17" ht="15.75" customHeight="1">
@@ -1047,15 +1125,15 @@
     </row>
     <row r="14" spans="4:17" ht="15.75" customHeight="1">
       <c r="D14" s="1"/>
-      <c r="E14" s="48" t="s">
+      <c r="E14" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="34"/>
-      <c r="G14" s="34"/>
-      <c r="H14" s="34"/>
-      <c r="I14" s="34"/>
-      <c r="J14" s="40"/>
-      <c r="K14" s="34"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="29"/>
+      <c r="H14" s="29"/>
+      <c r="I14" s="29"/>
+      <c r="J14" s="37"/>
+      <c r="K14" s="29"/>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -1068,119 +1146,119 @@
       <c r="E15" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F15" s="49" t="s">
+      <c r="F15" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="G15" s="35"/>
-      <c r="H15" s="49" t="s">
+      <c r="G15" s="30"/>
+      <c r="H15" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="I15" s="35"/>
-      <c r="J15" s="49" t="s">
+      <c r="I15" s="30"/>
+      <c r="J15" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="K15" s="35"/>
-      <c r="L15" s="49" t="s">
+      <c r="K15" s="30"/>
+      <c r="L15" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="M15" s="34"/>
-      <c r="N15" s="35"/>
+      <c r="M15" s="29"/>
+      <c r="N15" s="30"/>
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
       <c r="Q15" s="1"/>
     </row>
-    <row r="16" spans="4:17" ht="15.75" customHeight="1">
+    <row r="16" spans="4:17" ht="33.75" customHeight="1">
       <c r="D16" s="4"/>
-      <c r="E16" s="6">
+      <c r="E16" s="42">
         <v>0.1</v>
       </c>
-      <c r="F16" s="41">
+      <c r="F16" s="43">
         <v>44880</v>
       </c>
-      <c r="G16" s="35"/>
-      <c r="H16" s="43" t="s">
+      <c r="G16" s="44"/>
+      <c r="H16" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="I16" s="35"/>
-      <c r="J16" s="40"/>
-      <c r="K16" s="35"/>
-      <c r="L16" s="44" t="s">
-        <v>57</v>
-      </c>
-      <c r="M16" s="45"/>
-      <c r="N16" s="46"/>
+      <c r="I16" s="44"/>
+      <c r="J16" s="46"/>
+      <c r="K16" s="44"/>
+      <c r="L16" s="47" t="s">
+        <v>53</v>
+      </c>
+      <c r="M16" s="48"/>
+      <c r="N16" s="44"/>
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
     </row>
-    <row r="17" spans="4:17" ht="15.75" customHeight="1">
+    <row r="17" spans="4:17" ht="24.75" customHeight="1">
       <c r="D17" s="4"/>
-      <c r="E17" s="6">
+      <c r="E17" s="42">
         <v>0.2</v>
       </c>
-      <c r="F17" s="41">
+      <c r="F17" s="43">
         <v>44880</v>
       </c>
-      <c r="G17" s="35"/>
-      <c r="H17" s="47" t="s">
+      <c r="G17" s="44"/>
+      <c r="H17" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="I17" s="35"/>
-      <c r="J17" s="40"/>
-      <c r="K17" s="35"/>
-      <c r="L17" s="42" t="s">
-        <v>58</v>
-      </c>
-      <c r="M17" s="34"/>
-      <c r="N17" s="35"/>
+      <c r="I17" s="44"/>
+      <c r="J17" s="46"/>
+      <c r="K17" s="44"/>
+      <c r="L17" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="M17" s="48"/>
+      <c r="N17" s="44"/>
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
     </row>
-    <row r="18" spans="4:17" ht="15.75" customHeight="1">
+    <row r="18" spans="4:17" ht="32.25" customHeight="1">
       <c r="D18" s="4"/>
-      <c r="E18" s="7">
+      <c r="E18" s="50">
         <v>0.3</v>
       </c>
-      <c r="F18" s="41">
+      <c r="F18" s="43">
         <v>44880</v>
       </c>
-      <c r="G18" s="35"/>
-      <c r="H18" s="39" t="s">
+      <c r="G18" s="44"/>
+      <c r="H18" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="I18" s="35"/>
-      <c r="J18" s="40"/>
-      <c r="K18" s="35"/>
-      <c r="L18" s="57" t="s">
-        <v>60</v>
-      </c>
-      <c r="M18" s="34"/>
-      <c r="N18" s="35"/>
+      <c r="I18" s="44"/>
+      <c r="J18" s="46"/>
+      <c r="K18" s="44"/>
+      <c r="L18" s="51" t="s">
+        <v>51</v>
+      </c>
+      <c r="M18" s="52"/>
+      <c r="N18" s="53"/>
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
     </row>
-    <row r="19" spans="4:17" ht="15.75" customHeight="1">
+    <row r="19" spans="4:17" ht="24.75" customHeight="1">
       <c r="D19" s="4"/>
-      <c r="E19" s="7">
+      <c r="E19" s="50">
         <v>0.4</v>
       </c>
-      <c r="F19" s="41">
+      <c r="F19" s="43">
         <v>44880</v>
       </c>
-      <c r="G19" s="35"/>
-      <c r="H19" s="39" t="s">
+      <c r="G19" s="44"/>
+      <c r="H19" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="I19" s="35"/>
-      <c r="J19" s="40"/>
-      <c r="K19" s="35"/>
-      <c r="L19" s="42" t="s">
-        <v>59</v>
-      </c>
-      <c r="M19" s="34"/>
-      <c r="N19" s="35"/>
+      <c r="I19" s="44"/>
+      <c r="J19" s="46"/>
+      <c r="K19" s="44"/>
+      <c r="L19" s="47" t="s">
+        <v>52</v>
+      </c>
+      <c r="M19" s="48"/>
+      <c r="N19" s="44"/>
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
       <c r="Q19" s="1"/>
@@ -1219,144 +1297,144 @@
     </row>
     <row r="22" spans="4:17" ht="15.75" customHeight="1">
       <c r="D22" s="4"/>
-      <c r="E22" s="33" t="s">
+      <c r="E22" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="F22" s="34"/>
-      <c r="G22" s="34"/>
-      <c r="H22" s="34"/>
-      <c r="I22" s="34"/>
-      <c r="J22" s="34"/>
-      <c r="K22" s="34"/>
-      <c r="L22" s="34"/>
-      <c r="M22" s="34"/>
-      <c r="N22" s="34"/>
-      <c r="O22" s="34"/>
-      <c r="P22" s="35"/>
+      <c r="F22" s="29"/>
+      <c r="G22" s="29"/>
+      <c r="H22" s="29"/>
+      <c r="I22" s="29"/>
+      <c r="J22" s="29"/>
+      <c r="K22" s="29"/>
+      <c r="L22" s="29"/>
+      <c r="M22" s="29"/>
+      <c r="N22" s="29"/>
+      <c r="O22" s="29"/>
+      <c r="P22" s="30"/>
       <c r="Q22" s="1"/>
     </row>
     <row r="23" spans="4:17" ht="15">
       <c r="D23" s="4"/>
-      <c r="E23" s="33" t="s">
+      <c r="E23" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="F23" s="34"/>
-      <c r="G23" s="34"/>
-      <c r="H23" s="34"/>
-      <c r="I23" s="34"/>
-      <c r="J23" s="34"/>
-      <c r="K23" s="34"/>
-      <c r="L23" s="34"/>
-      <c r="M23" s="34"/>
-      <c r="N23" s="34"/>
-      <c r="O23" s="34"/>
-      <c r="P23" s="35"/>
+      <c r="F23" s="29"/>
+      <c r="G23" s="29"/>
+      <c r="H23" s="29"/>
+      <c r="I23" s="29"/>
+      <c r="J23" s="29"/>
+      <c r="K23" s="29"/>
+      <c r="L23" s="29"/>
+      <c r="M23" s="29"/>
+      <c r="N23" s="29"/>
+      <c r="O23" s="29"/>
+      <c r="P23" s="30"/>
       <c r="Q23" s="1"/>
     </row>
     <row r="24" spans="4:17" ht="15">
       <c r="D24" s="4"/>
-      <c r="E24" s="33" t="s">
+      <c r="E24" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="F24" s="34"/>
-      <c r="G24" s="34"/>
-      <c r="H24" s="34"/>
-      <c r="I24" s="34"/>
-      <c r="J24" s="34"/>
-      <c r="K24" s="34"/>
-      <c r="L24" s="34"/>
-      <c r="M24" s="34"/>
-      <c r="N24" s="34"/>
-      <c r="O24" s="34"/>
-      <c r="P24" s="35"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="29"/>
+      <c r="H24" s="29"/>
+      <c r="I24" s="29"/>
+      <c r="J24" s="29"/>
+      <c r="K24" s="29"/>
+      <c r="L24" s="29"/>
+      <c r="M24" s="29"/>
+      <c r="N24" s="29"/>
+      <c r="O24" s="29"/>
+      <c r="P24" s="30"/>
       <c r="Q24" s="1"/>
     </row>
     <row r="25" spans="4:17" ht="15">
       <c r="D25" s="4"/>
-      <c r="E25" s="33" t="s">
+      <c r="E25" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="F25" s="34"/>
-      <c r="G25" s="34"/>
-      <c r="H25" s="34"/>
-      <c r="I25" s="34"/>
-      <c r="J25" s="34"/>
-      <c r="K25" s="34"/>
-      <c r="L25" s="34"/>
-      <c r="M25" s="34"/>
-      <c r="N25" s="34"/>
-      <c r="O25" s="34"/>
-      <c r="P25" s="35"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="29"/>
+      <c r="H25" s="29"/>
+      <c r="I25" s="29"/>
+      <c r="J25" s="29"/>
+      <c r="K25" s="29"/>
+      <c r="L25" s="29"/>
+      <c r="M25" s="29"/>
+      <c r="N25" s="29"/>
+      <c r="O25" s="29"/>
+      <c r="P25" s="30"/>
       <c r="Q25" s="1"/>
     </row>
     <row r="26" spans="4:17" ht="15">
       <c r="D26" s="4"/>
-      <c r="E26" s="33" t="s">
+      <c r="E26" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="F26" s="34"/>
-      <c r="G26" s="34"/>
-      <c r="H26" s="34"/>
-      <c r="I26" s="34"/>
-      <c r="J26" s="34"/>
-      <c r="K26" s="34"/>
-      <c r="L26" s="34"/>
-      <c r="M26" s="34"/>
-      <c r="N26" s="34"/>
-      <c r="O26" s="34"/>
-      <c r="P26" s="35"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="29"/>
+      <c r="H26" s="29"/>
+      <c r="I26" s="29"/>
+      <c r="J26" s="29"/>
+      <c r="K26" s="29"/>
+      <c r="L26" s="29"/>
+      <c r="M26" s="29"/>
+      <c r="N26" s="29"/>
+      <c r="O26" s="29"/>
+      <c r="P26" s="30"/>
       <c r="Q26" s="1"/>
     </row>
     <row r="27" spans="4:17" ht="15">
       <c r="D27" s="4"/>
-      <c r="E27" s="33" t="s">
+      <c r="E27" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="F27" s="34"/>
-      <c r="G27" s="34"/>
-      <c r="H27" s="34"/>
-      <c r="I27" s="34"/>
-      <c r="J27" s="34"/>
-      <c r="K27" s="34"/>
-      <c r="L27" s="34"/>
-      <c r="M27" s="34"/>
-      <c r="N27" s="34"/>
-      <c r="O27" s="34"/>
-      <c r="P27" s="35"/>
+      <c r="F27" s="29"/>
+      <c r="G27" s="29"/>
+      <c r="H27" s="29"/>
+      <c r="I27" s="29"/>
+      <c r="J27" s="29"/>
+      <c r="K27" s="29"/>
+      <c r="L27" s="29"/>
+      <c r="M27" s="29"/>
+      <c r="N27" s="29"/>
+      <c r="O27" s="29"/>
+      <c r="P27" s="30"/>
       <c r="Q27" s="1"/>
     </row>
     <row r="28" spans="4:17" ht="15">
       <c r="D28" s="4"/>
-      <c r="E28" s="36" t="s">
+      <c r="E28" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="F28" s="37"/>
-      <c r="G28" s="37"/>
-      <c r="H28" s="37"/>
-      <c r="I28" s="37"/>
-      <c r="J28" s="37"/>
-      <c r="K28" s="37"/>
-      <c r="L28" s="37"/>
-      <c r="M28" s="37"/>
-      <c r="N28" s="37"/>
-      <c r="O28" s="37"/>
-      <c r="P28" s="38"/>
+      <c r="F28" s="27"/>
+      <c r="G28" s="27"/>
+      <c r="H28" s="27"/>
+      <c r="I28" s="27"/>
+      <c r="J28" s="27"/>
+      <c r="K28" s="27"/>
+      <c r="L28" s="27"/>
+      <c r="M28" s="27"/>
+      <c r="N28" s="27"/>
+      <c r="O28" s="27"/>
+      <c r="P28" s="41"/>
       <c r="Q28" s="1"/>
     </row>
     <row r="29" spans="4:17" ht="15">
       <c r="D29" s="4"/>
-      <c r="E29" s="34"/>
-      <c r="F29" s="34"/>
-      <c r="G29" s="34"/>
-      <c r="H29" s="34"/>
-      <c r="I29" s="34"/>
-      <c r="J29" s="34"/>
-      <c r="K29" s="34"/>
-      <c r="L29" s="34"/>
-      <c r="M29" s="34"/>
-      <c r="N29" s="34"/>
-      <c r="O29" s="34"/>
-      <c r="P29" s="35"/>
+      <c r="E29" s="29"/>
+      <c r="F29" s="29"/>
+      <c r="G29" s="29"/>
+      <c r="H29" s="29"/>
+      <c r="I29" s="29"/>
+      <c r="J29" s="29"/>
+      <c r="K29" s="29"/>
+      <c r="L29" s="29"/>
+      <c r="M29" s="29"/>
+      <c r="N29" s="29"/>
+      <c r="O29" s="29"/>
+      <c r="P29" s="30"/>
       <c r="Q29" s="1"/>
     </row>
     <row r="30" spans="4:17" ht="15">
@@ -1377,37 +1455,6 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="E4:N5"/>
-    <mergeCell ref="E7:I7"/>
-    <mergeCell ref="J7:P7"/>
-    <mergeCell ref="E8:I8"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="E9:I9"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="E10:I10"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="E11:I11"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="E14:I14"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="L15:N15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="L16:N16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="L17:N17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="L18:N18"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="L19:N19"/>
     <mergeCell ref="E27:P27"/>
     <mergeCell ref="E28:P29"/>
     <mergeCell ref="H19:I19"/>
@@ -1417,6 +1464,37 @@
     <mergeCell ref="E24:P24"/>
     <mergeCell ref="E25:P25"/>
     <mergeCell ref="E26:P26"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="L18:N18"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="L19:N19"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="L16:N16"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="L17:N17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="E14:I14"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="L15:N15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="E9:I9"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="E10:I10"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="E11:I11"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="E4:N5"/>
+    <mergeCell ref="E7:I7"/>
+    <mergeCell ref="J7:P7"/>
+    <mergeCell ref="E8:I8"/>
+    <mergeCell ref="J8:P8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1428,10 +1506,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="C7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1443,182 +1521,194 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="25.5" customHeight="1">
-      <c r="A1" s="8"/>
-      <c r="B1" s="9" t="s">
+      <c r="A1" s="6"/>
+      <c r="B1" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="11"/>
+      <c r="D1" s="9"/>
     </row>
     <row r="2" spans="1:4" ht="25.5" customHeight="1">
-      <c r="A2" s="12"/>
-      <c r="B2" s="13" t="s">
+      <c r="A2" s="10"/>
+      <c r="B2" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="12" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="42" customHeight="1" thickBot="1">
-      <c r="A3" s="15"/>
-      <c r="B3" s="16" t="s">
+      <c r="A3" s="13"/>
+      <c r="B3" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="14"/>
-      <c r="D3" s="17"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="15"/>
     </row>
     <row r="4" spans="1:4" ht="48.75" customHeight="1" thickBot="1">
-      <c r="A4" s="18"/>
-      <c r="B4" s="19" t="s">
+      <c r="A4" s="16"/>
+      <c r="B4" s="57" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="25" t="s">
+      <c r="C4" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="48.75" customHeight="1" thickBot="1">
+      <c r="A5" s="16"/>
+      <c r="B5" s="57" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="D4" s="20" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="48.75" customHeight="1" thickBot="1">
-      <c r="A5" s="18"/>
-      <c r="B5" s="19" t="s">
+      <c r="D5" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="25" t="s">
+    </row>
+    <row r="6" spans="1:4" ht="26.25" customHeight="1">
+      <c r="A6" s="17"/>
+      <c r="B6" s="55" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="21" t="s">
+      <c r="C6" s="20" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" ht="26.25" customHeight="1">
-      <c r="A6" s="22"/>
-      <c r="B6" s="23" t="s">
+      <c r="D6" s="56" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="26.25" customHeight="1">
+      <c r="A7" s="17"/>
+      <c r="B7" s="56"/>
+      <c r="C7" s="54" t="s">
         <v>37</v>
       </c>
-      <c r="C6" s="27" t="s">
+      <c r="D7" s="56"/>
+    </row>
+    <row r="8" spans="1:4" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A8" s="17"/>
+      <c r="B8" s="56"/>
+      <c r="C8" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="D8" s="56"/>
+    </row>
+    <row r="9" spans="1:4" ht="54">
+      <c r="A9" s="16"/>
+      <c r="B9" s="61" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="24" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="26.25" customHeight="1">
-      <c r="A7" s="22"/>
-      <c r="B7" s="23"/>
-      <c r="C7" s="27" t="s">
+      <c r="C9" s="64" t="s">
+        <v>57</v>
+      </c>
+      <c r="D9" s="58" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="65.25" customHeight="1">
+      <c r="A10" s="16"/>
+      <c r="B10" s="59"/>
+      <c r="C10" s="63" t="s">
+        <v>58</v>
+      </c>
+      <c r="D10" s="59"/>
+    </row>
+    <row r="11" spans="1:4" ht="54" customHeight="1" thickBot="1">
+      <c r="A11" s="16"/>
+      <c r="B11" s="60"/>
+      <c r="C11" s="65" t="s">
+        <v>59</v>
+      </c>
+      <c r="D11" s="60"/>
+    </row>
+    <row r="12" spans="1:4" ht="101.25" customHeight="1" thickBot="1">
+      <c r="A12" s="23"/>
+      <c r="B12" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="D7" s="24"/>
-    </row>
-    <row r="8" spans="1:4" ht="26.25" customHeight="1">
-      <c r="A8" s="22"/>
-      <c r="B8" s="23"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="24"/>
-    </row>
-    <row r="9" spans="1:4" ht="66" customHeight="1" thickBot="1">
-      <c r="A9" s="18"/>
-      <c r="B9" s="19" t="s">
+      <c r="C12" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" s="62" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="73.5" customHeight="1" thickBot="1">
+      <c r="A13" s="23"/>
+      <c r="B13" s="57" t="s">
         <v>40</v>
       </c>
-      <c r="C9" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="D9" s="20" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="48.75" customHeight="1">
-      <c r="A10" s="18"/>
-      <c r="B10" s="26" t="s">
+      <c r="C13" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" s="62" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="57" customHeight="1" thickBot="1">
+      <c r="A14" s="23"/>
+      <c r="B14" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="C10" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="D10" s="24" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="97.5" customHeight="1" thickBot="1">
-      <c r="A11" s="18"/>
-      <c r="B11" s="28" t="s">
-        <v>44</v>
-      </c>
-      <c r="C11" s="25" t="s">
+      <c r="C14" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" s="22" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="63.75" customHeight="1" thickBot="1">
+      <c r="A15" s="23"/>
+      <c r="B15" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="D11" s="29" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="55.5" customHeight="1" thickBot="1">
-      <c r="A12" s="18"/>
-      <c r="B12" s="28" t="s">
-        <v>46</v>
-      </c>
-      <c r="C12" s="32" t="s">
+      <c r="C15" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="D15" s="62" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" s="25" customFormat="1" ht="63.75" customHeight="1" thickBot="1">
+      <c r="A16" s="23"/>
+      <c r="B16" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="D12" s="30" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="57.75" customHeight="1" thickBot="1">
-      <c r="A13" s="31"/>
-      <c r="B13" s="28" t="s">
+      <c r="C16" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="D16" s="62" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" ht="47.25" customHeight="1" thickBot="1">
+      <c r="B17" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="C13" s="32" t="s">
+      <c r="C17" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="D13" s="30" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="51.75" customHeight="1" thickBot="1">
-      <c r="A14" s="31"/>
-      <c r="B14" s="28" t="s">
-        <v>51</v>
-      </c>
-      <c r="C14" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="D14" s="30" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="57" customHeight="1" thickBot="1">
-      <c r="A15" s="31"/>
-      <c r="B15" s="28" t="s">
-        <v>53</v>
-      </c>
-      <c r="C15" s="25" t="s">
-        <v>54</v>
-      </c>
-      <c r="D15" s="30" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="63.75" customHeight="1" thickBot="1">
-      <c r="A16" s="31"/>
-      <c r="B16" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="C16" s="25" t="s">
-        <v>56</v>
-      </c>
-      <c r="D16" s="30" t="s">
-        <v>36</v>
-      </c>
-    </row>
+      <c r="D17" s="22" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" ht="47.25" customHeight="1"/>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="D6:D8"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="D9:D11"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Documents/SRS/SRS document group 8.xlsx
+++ b/Documents/SRS/SRS document group 8.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Sprint2\19-11-2022\Documents\SRS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Sprint2\Final\Documents\SRS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3051E162-4D1F-4BEF-A9D3-F95391F50CF2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FF3CC86-C39D-49CE-BD86-748510401A67}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="20700" windowHeight="7755" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="7515" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="63">
   <si>
     <t>Software Requirement Specifications</t>
   </si>
@@ -145,77 +145,83 @@
   </si>
   <si>
     <t>SRS_06</t>
+  </si>
+  <si>
+    <t>SRS_07</t>
+  </si>
+  <si>
+    <t>provide the Client the ability to upload using an upload() function. 
+If the filetype is not appropiate, returns send appropiate file type</t>
+  </si>
+  <si>
+    <t>mandatory</t>
+  </si>
+  <si>
+    <t>SRS_08</t>
+  </si>
+  <si>
+    <t>provide the Client the ability to download their files using download(), 
+If there are no files to download it returns No files to be downloaded</t>
+  </si>
+  <si>
+    <t>SRS_09</t>
+  </si>
+  <si>
+    <t>provide the client to list and display the files using display() command. 
+Lists no files, if files are not found</t>
+  </si>
+  <si>
+    <t>SRS_10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">provide the server side, upload functionality to upload() the files back to the client. </t>
+  </si>
+  <si>
+    <t>Login and  register, Display files</t>
+  </si>
+  <si>
+    <t>operations menu, Logger</t>
+  </si>
+  <si>
+    <t>Server &amp; client side socket, Client choice validation in server</t>
+  </si>
+  <si>
+    <t>Upload, Download &amp; Delete files</t>
+  </si>
+  <si>
+    <t>creating a socket with three parameters (communication domain, type, protocol)</t>
+  </si>
+  <si>
+    <t>Registration:
+If client is a new user, Register with new username &amp; password</t>
+  </si>
+  <si>
+    <t>Server Socket Creation:
+creating a socket with three parameters (communication domain, type, protocol)</t>
+  </si>
+  <si>
+    <t>Socket accept:
+Accepting the connection from client.</t>
+  </si>
+  <si>
+    <t>provide the client to delete files using delete() command. 
+If user input filename doesn’t exist, pop up error, file not found</t>
   </si>
   <si>
     <t>Create a dropdown menu() which allows the client to choose the following options: 
 1. Upload 
 2. Download 
-3.Display</t>
-  </si>
-  <si>
-    <t>SRS_07</t>
-  </si>
-  <si>
-    <t>provide the Client the ability to upload using an upload() function. 
-If the filetype is not appropiate, returns send appropiate file type</t>
-  </si>
-  <si>
-    <t>mandatory</t>
-  </si>
-  <si>
-    <t>SRS_08</t>
-  </si>
-  <si>
-    <t>provide the Client the ability to download their files using download(), 
-If there are no files to download it returns No files to be downloaded</t>
-  </si>
-  <si>
-    <t>SRS_09</t>
-  </si>
-  <si>
-    <t>provide the client to list and display the files using display() command. 
-Lists no files, if files are not found</t>
-  </si>
-  <si>
-    <t>SRS_10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">provide the server side, upload functionality to upload() the files back to the client. </t>
-  </si>
-  <si>
-    <t>Login and  register, Display files</t>
-  </si>
-  <si>
-    <t>operations menu, Logger</t>
-  </si>
-  <si>
-    <t>Server &amp; client side socket, Client choice validation in server</t>
-  </si>
-  <si>
-    <t>Upload, Download &amp; Delete files</t>
-  </si>
-  <si>
-    <t>creating a socket with three parameters (communication domain, type, protocol)</t>
-  </si>
-  <si>
-    <t>Registration:
-If client is a new user, Register with new username &amp; password</t>
-  </si>
-  <si>
-    <t>Server Socket Creation:
-creating a socket with three parameters (communication domain, type, protocol)</t>
+3.Display                                                                                                                                                                                4. Delete</t>
+  </si>
+  <si>
+    <t>SRS_11</t>
+  </si>
+  <si>
+    <t>provide display functionality for the client, to see the files exist in server directory</t>
   </si>
   <si>
     <t>Socket bind:
-bind()reserves port for the socket.  It has three parameters socket identifier, struct sockaadr_in,  the port of the machine and size of the sockaddr structure</t>
-  </si>
-  <si>
-    <t>Socket accept:
-Accepting the connection from client.</t>
-  </si>
-  <si>
-    <t>provide the client to delete files using delete() command. 
-If user input filename doesn’t exist, pop up error, file not found</t>
+bind() reserves port for the socket.  It has three parameters socket identifier, struct sockaadr_in,  the port of the machine and size of the sockaddr structure</t>
   </si>
 </sst>
 </file>
@@ -226,7 +232,7 @@
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="d/m/yyyy"/>
   </numFmts>
-  <fonts count="18">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -322,13 +328,25 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -351,6 +369,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFD9D9D9"/>
         <bgColor rgb="FFD9D9D9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -546,7 +570,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -558,61 +582,28 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -628,14 +619,52 @@
     <xf numFmtId="15" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -643,77 +672,77 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -935,47 +964,47 @@
   </sheetPr>
   <dimension ref="D4:Q30"/>
   <sheetViews>
-    <sheetView topLeftCell="H6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="L19" sqref="L19:N19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="4" spans="4:17" ht="15.75" customHeight="1">
+    <row r="4" spans="4:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D4" s="1"/>
-      <c r="E4" s="26" t="s">
+      <c r="E4" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="27"/>
-      <c r="J4" s="27"/>
-      <c r="K4" s="27"/>
-      <c r="L4" s="27"/>
-      <c r="M4" s="27"/>
-      <c r="N4" s="27"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="16"/>
+      <c r="M4" s="16"/>
+      <c r="N4" s="16"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
     </row>
-    <row r="5" spans="4:17" ht="15.75" customHeight="1">
+    <row r="5" spans="4:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D5" s="1"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="27"/>
-      <c r="H5" s="27"/>
-      <c r="I5" s="27"/>
-      <c r="J5" s="27"/>
-      <c r="K5" s="27"/>
-      <c r="L5" s="27"/>
-      <c r="M5" s="27"/>
-      <c r="N5" s="27"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="16"/>
+      <c r="M5" s="16"/>
+      <c r="N5" s="16"/>
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
     </row>
-    <row r="6" spans="4:17" ht="15.75" customHeight="1">
+    <row r="6" spans="4:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D6" s="1"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
@@ -991,107 +1020,107 @@
       <c r="P6" s="3"/>
       <c r="Q6" s="1"/>
     </row>
-    <row r="7" spans="4:17" ht="15.75" customHeight="1">
+    <row r="7" spans="4:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D7" s="4"/>
-      <c r="E7" s="28" t="s">
+      <c r="E7" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="29"/>
-      <c r="I7" s="30"/>
-      <c r="J7" s="31" t="s">
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="K7" s="32"/>
-      <c r="L7" s="32"/>
-      <c r="M7" s="32"/>
-      <c r="N7" s="32"/>
-      <c r="O7" s="32"/>
-      <c r="P7" s="33"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="21"/>
+      <c r="M7" s="21"/>
+      <c r="N7" s="21"/>
+      <c r="O7" s="21"/>
+      <c r="P7" s="22"/>
       <c r="Q7" s="1"/>
     </row>
-    <row r="8" spans="4:17" ht="15.75" customHeight="1">
+    <row r="8" spans="4:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D8" s="4"/>
-      <c r="E8" s="28" t="s">
+      <c r="E8" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="F8" s="29"/>
-      <c r="G8" s="29"/>
-      <c r="H8" s="29"/>
-      <c r="I8" s="30"/>
-      <c r="J8" s="34" t="s">
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="K8" s="32"/>
-      <c r="L8" s="32"/>
-      <c r="M8" s="32"/>
-      <c r="N8" s="32"/>
-      <c r="O8" s="32"/>
-      <c r="P8" s="33"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="21"/>
+      <c r="M8" s="21"/>
+      <c r="N8" s="21"/>
+      <c r="O8" s="21"/>
+      <c r="P8" s="22"/>
       <c r="Q8" s="1"/>
     </row>
-    <row r="9" spans="4:17" ht="15.75" customHeight="1">
+    <row r="9" spans="4:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D9" s="4"/>
-      <c r="E9" s="28" t="s">
+      <c r="E9" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="29"/>
-      <c r="G9" s="29"/>
-      <c r="H9" s="29"/>
-      <c r="I9" s="30"/>
-      <c r="J9" s="35">
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="24">
         <v>0.1</v>
       </c>
-      <c r="K9" s="32"/>
-      <c r="L9" s="32"/>
-      <c r="M9" s="32"/>
-      <c r="N9" s="32"/>
-      <c r="O9" s="32"/>
-      <c r="P9" s="33"/>
+      <c r="K9" s="25"/>
+      <c r="L9" s="25"/>
+      <c r="M9" s="25"/>
+      <c r="N9" s="25"/>
+      <c r="O9" s="25"/>
+      <c r="P9" s="26"/>
       <c r="Q9" s="1"/>
     </row>
-    <row r="10" spans="4:17" ht="15.75" customHeight="1">
+    <row r="10" spans="4:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D10" s="4"/>
-      <c r="E10" s="28" t="s">
+      <c r="E10" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="F10" s="29"/>
-      <c r="G10" s="29"/>
-      <c r="H10" s="29"/>
-      <c r="I10" s="30"/>
-      <c r="J10" s="36">
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="27">
         <v>0.1</v>
       </c>
-      <c r="K10" s="32"/>
-      <c r="L10" s="32"/>
-      <c r="M10" s="32"/>
-      <c r="N10" s="32"/>
-      <c r="O10" s="32"/>
-      <c r="P10" s="33"/>
+      <c r="K10" s="25"/>
+      <c r="L10" s="25"/>
+      <c r="M10" s="25"/>
+      <c r="N10" s="25"/>
+      <c r="O10" s="25"/>
+      <c r="P10" s="26"/>
       <c r="Q10" s="1"/>
     </row>
-    <row r="11" spans="4:17" ht="15.75" customHeight="1">
+    <row r="11" spans="4:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D11" s="4"/>
-      <c r="E11" s="28" t="s">
+      <c r="E11" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="F11" s="29"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="29"/>
-      <c r="I11" s="30"/>
-      <c r="J11" s="34" t="s">
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="K11" s="32"/>
-      <c r="L11" s="32"/>
-      <c r="M11" s="32"/>
-      <c r="N11" s="32"/>
-      <c r="O11" s="32"/>
-      <c r="P11" s="33"/>
+      <c r="K11" s="21"/>
+      <c r="L11" s="21"/>
+      <c r="M11" s="21"/>
+      <c r="N11" s="21"/>
+      <c r="O11" s="21"/>
+      <c r="P11" s="22"/>
       <c r="Q11" s="1"/>
     </row>
-    <row r="12" spans="4:17" ht="15.75" customHeight="1">
+    <row r="12" spans="4:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
@@ -1107,7 +1136,7 @@
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
     </row>
-    <row r="13" spans="4:17" ht="15.75" customHeight="1">
+    <row r="13" spans="4:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
@@ -1123,17 +1152,17 @@
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
     </row>
-    <row r="14" spans="4:17" ht="15.75" customHeight="1">
+    <row r="14" spans="4:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D14" s="1"/>
-      <c r="E14" s="28" t="s">
+      <c r="E14" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="29"/>
-      <c r="G14" s="29"/>
-      <c r="H14" s="29"/>
-      <c r="I14" s="29"/>
-      <c r="J14" s="37"/>
-      <c r="K14" s="29"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="28"/>
+      <c r="K14" s="18"/>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -1141,129 +1170,129 @@
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
     </row>
-    <row r="15" spans="4:17" ht="15.75" customHeight="1">
+    <row r="15" spans="4:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D15" s="4"/>
       <c r="E15" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F15" s="38" t="s">
+      <c r="F15" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="G15" s="30"/>
-      <c r="H15" s="38" t="s">
+      <c r="G15" s="19"/>
+      <c r="H15" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="I15" s="30"/>
-      <c r="J15" s="38" t="s">
+      <c r="I15" s="19"/>
+      <c r="J15" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="K15" s="30"/>
-      <c r="L15" s="38" t="s">
+      <c r="K15" s="19"/>
+      <c r="L15" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="M15" s="29"/>
-      <c r="N15" s="30"/>
+      <c r="M15" s="18"/>
+      <c r="N15" s="19"/>
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
       <c r="Q15" s="1"/>
     </row>
-    <row r="16" spans="4:17" ht="33.75" customHeight="1">
+    <row r="16" spans="4:17" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D16" s="4"/>
-      <c r="E16" s="42">
+      <c r="E16" s="13">
         <v>0.1</v>
       </c>
-      <c r="F16" s="43">
-        <v>44880</v>
-      </c>
-      <c r="G16" s="44"/>
-      <c r="H16" s="45" t="s">
+      <c r="F16" s="30">
+        <v>44881</v>
+      </c>
+      <c r="G16" s="31"/>
+      <c r="H16" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="I16" s="44"/>
-      <c r="J16" s="46"/>
-      <c r="K16" s="44"/>
-      <c r="L16" s="47" t="s">
-        <v>53</v>
-      </c>
-      <c r="M16" s="48"/>
-      <c r="N16" s="44"/>
+      <c r="I16" s="31"/>
+      <c r="J16" s="33"/>
+      <c r="K16" s="31"/>
+      <c r="L16" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="M16" s="35"/>
+      <c r="N16" s="31"/>
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
     </row>
-    <row r="17" spans="4:17" ht="24.75" customHeight="1">
+    <row r="17" spans="4:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D17" s="4"/>
-      <c r="E17" s="42">
+      <c r="E17" s="13">
         <v>0.2</v>
       </c>
-      <c r="F17" s="43">
-        <v>44880</v>
-      </c>
-      <c r="G17" s="44"/>
-      <c r="H17" s="49" t="s">
+      <c r="F17" s="30">
+        <v>44882</v>
+      </c>
+      <c r="G17" s="31"/>
+      <c r="H17" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="I17" s="44"/>
-      <c r="J17" s="46"/>
-      <c r="K17" s="44"/>
-      <c r="L17" s="47" t="s">
-        <v>54</v>
-      </c>
-      <c r="M17" s="48"/>
-      <c r="N17" s="44"/>
+      <c r="I17" s="31"/>
+      <c r="J17" s="33"/>
+      <c r="K17" s="31"/>
+      <c r="L17" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="M17" s="35"/>
+      <c r="N17" s="31"/>
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
     </row>
-    <row r="18" spans="4:17" ht="32.25" customHeight="1">
+    <row r="18" spans="4:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D18" s="4"/>
-      <c r="E18" s="50">
+      <c r="E18" s="14">
         <v>0.3</v>
       </c>
-      <c r="F18" s="43">
-        <v>44880</v>
-      </c>
-      <c r="G18" s="44"/>
-      <c r="H18" s="49" t="s">
+      <c r="F18" s="30">
+        <v>44882</v>
+      </c>
+      <c r="G18" s="31"/>
+      <c r="H18" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="I18" s="44"/>
-      <c r="J18" s="46"/>
-      <c r="K18" s="44"/>
-      <c r="L18" s="51" t="s">
-        <v>51</v>
-      </c>
-      <c r="M18" s="52"/>
-      <c r="N18" s="53"/>
+      <c r="I18" s="31"/>
+      <c r="J18" s="33"/>
+      <c r="K18" s="31"/>
+      <c r="L18" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="M18" s="38"/>
+      <c r="N18" s="39"/>
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
     </row>
-    <row r="19" spans="4:17" ht="24.75" customHeight="1">
+    <row r="19" spans="4:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D19" s="4"/>
-      <c r="E19" s="50">
+      <c r="E19" s="14">
         <v>0.4</v>
       </c>
-      <c r="F19" s="43">
-        <v>44880</v>
-      </c>
-      <c r="G19" s="44"/>
-      <c r="H19" s="49" t="s">
+      <c r="F19" s="30">
+        <v>44883</v>
+      </c>
+      <c r="G19" s="31"/>
+      <c r="H19" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="I19" s="44"/>
-      <c r="J19" s="46"/>
-      <c r="K19" s="44"/>
-      <c r="L19" s="47" t="s">
-        <v>52</v>
-      </c>
-      <c r="M19" s="48"/>
-      <c r="N19" s="44"/>
+      <c r="I19" s="31"/>
+      <c r="J19" s="33"/>
+      <c r="K19" s="31"/>
+      <c r="L19" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="M19" s="35"/>
+      <c r="N19" s="31"/>
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
       <c r="Q19" s="1"/>
     </row>
-    <row r="20" spans="4:17" ht="15.75" customHeight="1">
+    <row r="20" spans="4:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
@@ -1279,7 +1308,7 @@
       <c r="P20" s="1"/>
       <c r="Q20" s="1"/>
     </row>
-    <row r="21" spans="4:17" ht="15.75" customHeight="1">
+    <row r="21" spans="4:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D21" s="1"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
@@ -1295,149 +1324,149 @@
       <c r="P21" s="2"/>
       <c r="Q21" s="1"/>
     </row>
-    <row r="22" spans="4:17" ht="15.75" customHeight="1">
+    <row r="22" spans="4:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D22" s="4"/>
-      <c r="E22" s="39" t="s">
+      <c r="E22" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="F22" s="29"/>
-      <c r="G22" s="29"/>
-      <c r="H22" s="29"/>
-      <c r="I22" s="29"/>
-      <c r="J22" s="29"/>
-      <c r="K22" s="29"/>
-      <c r="L22" s="29"/>
-      <c r="M22" s="29"/>
-      <c r="N22" s="29"/>
-      <c r="O22" s="29"/>
-      <c r="P22" s="30"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="18"/>
+      <c r="J22" s="18"/>
+      <c r="K22" s="18"/>
+      <c r="L22" s="18"/>
+      <c r="M22" s="18"/>
+      <c r="N22" s="18"/>
+      <c r="O22" s="18"/>
+      <c r="P22" s="19"/>
       <c r="Q22" s="1"/>
     </row>
-    <row r="23" spans="4:17" ht="15">
+    <row r="23" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D23" s="4"/>
-      <c r="E23" s="39" t="s">
+      <c r="E23" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="F23" s="29"/>
-      <c r="G23" s="29"/>
-      <c r="H23" s="29"/>
-      <c r="I23" s="29"/>
-      <c r="J23" s="29"/>
-      <c r="K23" s="29"/>
-      <c r="L23" s="29"/>
-      <c r="M23" s="29"/>
-      <c r="N23" s="29"/>
-      <c r="O23" s="29"/>
-      <c r="P23" s="30"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="18"/>
+      <c r="J23" s="18"/>
+      <c r="K23" s="18"/>
+      <c r="L23" s="18"/>
+      <c r="M23" s="18"/>
+      <c r="N23" s="18"/>
+      <c r="O23" s="18"/>
+      <c r="P23" s="19"/>
       <c r="Q23" s="1"/>
     </row>
-    <row r="24" spans="4:17" ht="15">
+    <row r="24" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D24" s="4"/>
-      <c r="E24" s="39" t="s">
+      <c r="E24" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="F24" s="29"/>
-      <c r="G24" s="29"/>
-      <c r="H24" s="29"/>
-      <c r="I24" s="29"/>
-      <c r="J24" s="29"/>
-      <c r="K24" s="29"/>
-      <c r="L24" s="29"/>
-      <c r="M24" s="29"/>
-      <c r="N24" s="29"/>
-      <c r="O24" s="29"/>
-      <c r="P24" s="30"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="18"/>
+      <c r="I24" s="18"/>
+      <c r="J24" s="18"/>
+      <c r="K24" s="18"/>
+      <c r="L24" s="18"/>
+      <c r="M24" s="18"/>
+      <c r="N24" s="18"/>
+      <c r="O24" s="18"/>
+      <c r="P24" s="19"/>
       <c r="Q24" s="1"/>
     </row>
-    <row r="25" spans="4:17" ht="15">
+    <row r="25" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D25" s="4"/>
-      <c r="E25" s="39" t="s">
+      <c r="E25" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="F25" s="29"/>
-      <c r="G25" s="29"/>
-      <c r="H25" s="29"/>
-      <c r="I25" s="29"/>
-      <c r="J25" s="29"/>
-      <c r="K25" s="29"/>
-      <c r="L25" s="29"/>
-      <c r="M25" s="29"/>
-      <c r="N25" s="29"/>
-      <c r="O25" s="29"/>
-      <c r="P25" s="30"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="18"/>
+      <c r="I25" s="18"/>
+      <c r="J25" s="18"/>
+      <c r="K25" s="18"/>
+      <c r="L25" s="18"/>
+      <c r="M25" s="18"/>
+      <c r="N25" s="18"/>
+      <c r="O25" s="18"/>
+      <c r="P25" s="19"/>
       <c r="Q25" s="1"/>
     </row>
-    <row r="26" spans="4:17" ht="15">
+    <row r="26" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D26" s="4"/>
-      <c r="E26" s="39" t="s">
+      <c r="E26" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="F26" s="29"/>
-      <c r="G26" s="29"/>
-      <c r="H26" s="29"/>
-      <c r="I26" s="29"/>
-      <c r="J26" s="29"/>
-      <c r="K26" s="29"/>
-      <c r="L26" s="29"/>
-      <c r="M26" s="29"/>
-      <c r="N26" s="29"/>
-      <c r="O26" s="29"/>
-      <c r="P26" s="30"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="18"/>
+      <c r="H26" s="18"/>
+      <c r="I26" s="18"/>
+      <c r="J26" s="18"/>
+      <c r="K26" s="18"/>
+      <c r="L26" s="18"/>
+      <c r="M26" s="18"/>
+      <c r="N26" s="18"/>
+      <c r="O26" s="18"/>
+      <c r="P26" s="19"/>
       <c r="Q26" s="1"/>
     </row>
-    <row r="27" spans="4:17" ht="15">
+    <row r="27" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D27" s="4"/>
-      <c r="E27" s="39" t="s">
+      <c r="E27" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="F27" s="29"/>
-      <c r="G27" s="29"/>
-      <c r="H27" s="29"/>
-      <c r="I27" s="29"/>
-      <c r="J27" s="29"/>
-      <c r="K27" s="29"/>
-      <c r="L27" s="29"/>
-      <c r="M27" s="29"/>
-      <c r="N27" s="29"/>
-      <c r="O27" s="29"/>
-      <c r="P27" s="30"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="18"/>
+      <c r="H27" s="18"/>
+      <c r="I27" s="18"/>
+      <c r="J27" s="18"/>
+      <c r="K27" s="18"/>
+      <c r="L27" s="18"/>
+      <c r="M27" s="18"/>
+      <c r="N27" s="18"/>
+      <c r="O27" s="18"/>
+      <c r="P27" s="19"/>
       <c r="Q27" s="1"/>
     </row>
-    <row r="28" spans="4:17" ht="15">
+    <row r="28" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D28" s="4"/>
-      <c r="E28" s="40" t="s">
+      <c r="E28" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="F28" s="27"/>
-      <c r="G28" s="27"/>
-      <c r="H28" s="27"/>
-      <c r="I28" s="27"/>
-      <c r="J28" s="27"/>
-      <c r="K28" s="27"/>
-      <c r="L28" s="27"/>
-      <c r="M28" s="27"/>
-      <c r="N28" s="27"/>
-      <c r="O28" s="27"/>
-      <c r="P28" s="41"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="16"/>
+      <c r="H28" s="16"/>
+      <c r="I28" s="16"/>
+      <c r="J28" s="16"/>
+      <c r="K28" s="16"/>
+      <c r="L28" s="16"/>
+      <c r="M28" s="16"/>
+      <c r="N28" s="16"/>
+      <c r="O28" s="16"/>
+      <c r="P28" s="42"/>
       <c r="Q28" s="1"/>
     </row>
-    <row r="29" spans="4:17" ht="15">
+    <row r="29" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D29" s="4"/>
-      <c r="E29" s="29"/>
-      <c r="F29" s="29"/>
-      <c r="G29" s="29"/>
-      <c r="H29" s="29"/>
-      <c r="I29" s="29"/>
-      <c r="J29" s="29"/>
-      <c r="K29" s="29"/>
-      <c r="L29" s="29"/>
-      <c r="M29" s="29"/>
-      <c r="N29" s="29"/>
-      <c r="O29" s="29"/>
-      <c r="P29" s="30"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="18"/>
+      <c r="H29" s="18"/>
+      <c r="I29" s="18"/>
+      <c r="J29" s="18"/>
+      <c r="K29" s="18"/>
+      <c r="L29" s="18"/>
+      <c r="M29" s="18"/>
+      <c r="N29" s="18"/>
+      <c r="O29" s="18"/>
+      <c r="P29" s="19"/>
       <c r="Q29" s="1"/>
     </row>
-    <row r="30" spans="4:17" ht="15">
+    <row r="30" spans="4:17" ht="15" x14ac:dyDescent="0.25">
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
@@ -1508,207 +1537,220 @@
   </sheetPr>
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="27.5703125" customWidth="1"/>
     <col min="2" max="2" width="31.140625" customWidth="1"/>
     <col min="3" max="3" width="96.7109375" customWidth="1"/>
-    <col min="4" max="4" width="59.42578125" customWidth="1"/>
+    <col min="4" max="4" width="43.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="25.5" customHeight="1">
+    <row r="1" spans="1:4" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="6"/>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="9"/>
-    </row>
-    <row r="2" spans="1:4" ht="25.5" customHeight="1">
-      <c r="A2" s="10"/>
-      <c r="B2" s="11" t="s">
+      <c r="D1" s="45"/>
+    </row>
+    <row r="2" spans="1:4" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="7"/>
+      <c r="B2" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="65" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="65" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="42" customHeight="1" thickBot="1">
-      <c r="A3" s="13"/>
-      <c r="B3" s="14" t="s">
+    <row r="3" spans="1:4" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="8"/>
+      <c r="B3" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="12"/>
-      <c r="D3" s="15"/>
-    </row>
-    <row r="4" spans="1:4" ht="48.75" customHeight="1" thickBot="1">
-      <c r="A4" s="16"/>
-      <c r="B4" s="57" t="s">
+      <c r="C3" s="66"/>
+      <c r="D3" s="66"/>
+    </row>
+    <row r="4" spans="1:4" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="9"/>
+      <c r="B4" s="59" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="24" t="s">
+      <c r="C4" s="48" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" s="49" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="9"/>
+      <c r="B5" s="59" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="49" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="10"/>
+      <c r="B6" s="60" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="50" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="51" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="10"/>
+      <c r="B7" s="61"/>
+      <c r="C7" s="50" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="51"/>
+    </row>
+    <row r="8" spans="1:4" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="10"/>
+      <c r="B8" s="61"/>
+      <c r="C8" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="D8" s="51"/>
+    </row>
+    <row r="9" spans="1:4" ht="37.5" x14ac:dyDescent="0.2">
+      <c r="A9" s="9"/>
+      <c r="B9" s="62" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="53" t="s">
         <v>56</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D9" s="52" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="48.75" customHeight="1" thickBot="1">
-      <c r="A5" s="16"/>
-      <c r="B5" s="57" t="s">
-        <v>33</v>
-      </c>
-      <c r="C5" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5" s="18" t="s">
+    <row r="10" spans="1:4" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="9"/>
+      <c r="B10" s="63"/>
+      <c r="C10" s="55" t="s">
+        <v>62</v>
+      </c>
+      <c r="D10" s="54"/>
+    </row>
+    <row r="11" spans="1:4" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="9"/>
+      <c r="B11" s="64"/>
+      <c r="C11" s="57" t="s">
+        <v>57</v>
+      </c>
+      <c r="D11" s="56"/>
+    </row>
+    <row r="12" spans="1:4" ht="116.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="11"/>
+      <c r="B12" s="59" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="48" t="s">
+        <v>59</v>
+      </c>
+      <c r="D12" s="58" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="26.25" customHeight="1">
-      <c r="A6" s="17"/>
-      <c r="B6" s="55" t="s">
-        <v>35</v>
-      </c>
-      <c r="C6" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="D6" s="56" t="s">
+    <row r="13" spans="1:4" ht="73.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="11"/>
+      <c r="B13" s="59" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="48" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" s="58" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="11"/>
+      <c r="B14" s="59" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="48" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" s="58" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="26.25" customHeight="1">
-      <c r="A7" s="17"/>
-      <c r="B7" s="56"/>
-      <c r="C7" s="54" t="s">
-        <v>37</v>
-      </c>
-      <c r="D7" s="56"/>
-    </row>
-    <row r="8" spans="1:4" ht="26.25" customHeight="1" thickBot="1">
-      <c r="A8" s="17"/>
-      <c r="B8" s="56"/>
-      <c r="C8" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="D8" s="56"/>
-    </row>
-    <row r="9" spans="1:4" ht="54">
-      <c r="A9" s="16"/>
-      <c r="B9" s="61" t="s">
-        <v>38</v>
-      </c>
-      <c r="C9" s="64" t="s">
-        <v>57</v>
-      </c>
-      <c r="D9" s="58" t="s">
+    <row r="15" spans="1:4" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="11"/>
+      <c r="B15" s="59" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="48" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" s="58" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="65.25" customHeight="1">
-      <c r="A10" s="16"/>
-      <c r="B10" s="59"/>
-      <c r="C10" s="63" t="s">
+    <row r="16" spans="1:4" s="12" customFormat="1" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="11"/>
+      <c r="B16" s="59" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" s="48" t="s">
         <v>58</v>
       </c>
-      <c r="D10" s="59"/>
-    </row>
-    <row r="11" spans="1:4" ht="54" customHeight="1" thickBot="1">
-      <c r="A11" s="16"/>
-      <c r="B11" s="60"/>
-      <c r="C11" s="65" t="s">
-        <v>59</v>
-      </c>
-      <c r="D11" s="60"/>
-    </row>
-    <row r="12" spans="1:4" ht="101.25" customHeight="1" thickBot="1">
-      <c r="A12" s="23"/>
-      <c r="B12" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="C12" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="D12" s="62" t="s">
+      <c r="D16" s="58" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="73.5" customHeight="1" thickBot="1">
-      <c r="A13" s="23"/>
-      <c r="B13" s="57" t="s">
-        <v>40</v>
-      </c>
-      <c r="C13" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="D13" s="62" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="57" customHeight="1" thickBot="1">
-      <c r="A14" s="23"/>
-      <c r="B14" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="C14" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="D14" s="22" t="s">
+    <row r="17" spans="2:4" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="59" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" s="48" t="s">
+        <v>49</v>
+      </c>
+      <c r="D17" s="58" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="63.75" customHeight="1" thickBot="1">
-      <c r="A15" s="23"/>
-      <c r="B15" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="C15" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="D15" s="62" t="s">
+    <row r="18" spans="2:4" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="59" t="s">
+        <v>60</v>
+      </c>
+      <c r="C18" s="48" t="s">
+        <v>61</v>
+      </c>
+      <c r="D18" s="58" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:4" s="25" customFormat="1" ht="63.75" customHeight="1" thickBot="1">
-      <c r="A16" s="23"/>
-      <c r="B16" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="C16" s="24" t="s">
-        <v>60</v>
-      </c>
-      <c r="D16" s="62" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" ht="47.25" customHeight="1" thickBot="1">
-      <c r="B17" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="C17" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="D17" s="22" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" ht="47.25" customHeight="1"/>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="6">
     <mergeCell ref="B6:B8"/>
     <mergeCell ref="D6:D8"/>
     <mergeCell ref="B9:B11"/>
     <mergeCell ref="D9:D11"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Documents/SRS/SRS document group 8.xlsx
+++ b/Documents/SRS/SRS document group 8.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Sprint2\Final\Documents\SRS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FF3CC86-C39D-49CE-BD86-748510401A67}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48629002-B2E4-4B7E-9994-7EFF82EA59ED}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="7515" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -101,9 +101,6 @@
     <t xml:space="preserve">                       </t>
   </si>
   <si>
-    <t>File Management System</t>
-  </si>
-  <si>
     <t>Requirement Tag</t>
   </si>
   <si>
@@ -222,6 +219,9 @@
   <si>
     <t>Socket bind:
 bind() reserves port for the socket.  It has three parameters socket identifier, struct sockaadr_in,  the port of the machine and size of the sockaddr structure</t>
+  </si>
+  <si>
+    <t>File Storage Management System</t>
   </si>
 </sst>
 </file>
@@ -232,7 +232,7 @@
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="d/m/yyyy"/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="20">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -604,138 +604,138 @@
     <xf numFmtId="164" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="15" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -965,46 +965,46 @@
   <dimension ref="D4:Q30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19:N19"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
-    <row r="4" spans="4:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="4:17" ht="15.75" customHeight="1">
       <c r="D4" s="1"/>
-      <c r="E4" s="15" t="s">
+      <c r="E4" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="16"/>
-      <c r="L4" s="16"/>
-      <c r="M4" s="16"/>
-      <c r="N4" s="16"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
+      <c r="K4" s="32"/>
+      <c r="L4" s="32"/>
+      <c r="M4" s="32"/>
+      <c r="N4" s="32"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
     </row>
-    <row r="5" spans="4:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="4:17" ht="15.75" customHeight="1">
       <c r="D5" s="1"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="16"/>
-      <c r="K5" s="16"/>
-      <c r="L5" s="16"/>
-      <c r="M5" s="16"/>
-      <c r="N5" s="16"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="32"/>
+      <c r="I5" s="32"/>
+      <c r="J5" s="32"/>
+      <c r="K5" s="32"/>
+      <c r="L5" s="32"/>
+      <c r="M5" s="32"/>
+      <c r="N5" s="32"/>
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
     </row>
-    <row r="6" spans="4:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="4:17" ht="15.75" customHeight="1">
       <c r="D6" s="1"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
@@ -1020,107 +1020,107 @@
       <c r="P6" s="3"/>
       <c r="Q6" s="1"/>
     </row>
-    <row r="7" spans="4:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="4:17" ht="15.75" customHeight="1">
       <c r="D7" s="4"/>
-      <c r="E7" s="17" t="s">
+      <c r="E7" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="20" t="s">
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="30"/>
+      <c r="J7" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="K7" s="21"/>
-      <c r="L7" s="21"/>
-      <c r="M7" s="21"/>
-      <c r="N7" s="21"/>
-      <c r="O7" s="21"/>
-      <c r="P7" s="22"/>
+      <c r="K7" s="52"/>
+      <c r="L7" s="52"/>
+      <c r="M7" s="52"/>
+      <c r="N7" s="52"/>
+      <c r="O7" s="52"/>
+      <c r="P7" s="53"/>
       <c r="Q7" s="1"/>
     </row>
-    <row r="8" spans="4:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="4:17" ht="15.75" customHeight="1">
       <c r="D8" s="4"/>
-      <c r="E8" s="17" t="s">
+      <c r="E8" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="23" t="s">
+      <c r="F8" s="29"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="30"/>
+      <c r="J8" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="K8" s="21"/>
-      <c r="L8" s="21"/>
-      <c r="M8" s="21"/>
-      <c r="N8" s="21"/>
-      <c r="O8" s="21"/>
-      <c r="P8" s="22"/>
+      <c r="K8" s="52"/>
+      <c r="L8" s="52"/>
+      <c r="M8" s="52"/>
+      <c r="N8" s="52"/>
+      <c r="O8" s="52"/>
+      <c r="P8" s="53"/>
       <c r="Q8" s="1"/>
     </row>
-    <row r="9" spans="4:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="4:17" ht="15.75" customHeight="1">
       <c r="D9" s="4"/>
-      <c r="E9" s="17" t="s">
+      <c r="E9" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="24">
+      <c r="F9" s="29"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="47">
         <v>0.1</v>
       </c>
-      <c r="K9" s="25"/>
-      <c r="L9" s="25"/>
-      <c r="M9" s="25"/>
-      <c r="N9" s="25"/>
-      <c r="O9" s="25"/>
-      <c r="P9" s="26"/>
+      <c r="K9" s="48"/>
+      <c r="L9" s="48"/>
+      <c r="M9" s="48"/>
+      <c r="N9" s="48"/>
+      <c r="O9" s="48"/>
+      <c r="P9" s="49"/>
       <c r="Q9" s="1"/>
     </row>
-    <row r="10" spans="4:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="4:17" ht="15.75" customHeight="1">
       <c r="D10" s="4"/>
-      <c r="E10" s="17" t="s">
+      <c r="E10" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="27">
+      <c r="F10" s="29"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="29"/>
+      <c r="I10" s="30"/>
+      <c r="J10" s="50">
         <v>0.1</v>
       </c>
-      <c r="K10" s="25"/>
-      <c r="L10" s="25"/>
-      <c r="M10" s="25"/>
-      <c r="N10" s="25"/>
-      <c r="O10" s="25"/>
-      <c r="P10" s="26"/>
+      <c r="K10" s="48"/>
+      <c r="L10" s="48"/>
+      <c r="M10" s="48"/>
+      <c r="N10" s="48"/>
+      <c r="O10" s="48"/>
+      <c r="P10" s="49"/>
       <c r="Q10" s="1"/>
     </row>
-    <row r="11" spans="4:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="4:17" ht="15.75" customHeight="1">
       <c r="D11" s="4"/>
-      <c r="E11" s="17" t="s">
+      <c r="E11" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="23" t="s">
+      <c r="F11" s="29"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="30"/>
+      <c r="J11" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="K11" s="21"/>
-      <c r="L11" s="21"/>
-      <c r="M11" s="21"/>
-      <c r="N11" s="21"/>
-      <c r="O11" s="21"/>
-      <c r="P11" s="22"/>
+      <c r="K11" s="52"/>
+      <c r="L11" s="52"/>
+      <c r="M11" s="52"/>
+      <c r="N11" s="52"/>
+      <c r="O11" s="52"/>
+      <c r="P11" s="53"/>
       <c r="Q11" s="1"/>
     </row>
-    <row r="12" spans="4:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="4:17" ht="15.75" customHeight="1">
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
@@ -1136,7 +1136,7 @@
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
     </row>
-    <row r="13" spans="4:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="4:17" ht="15.75" customHeight="1">
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
@@ -1152,17 +1152,17 @@
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
     </row>
-    <row r="14" spans="4:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="4:17" ht="15.75" customHeight="1">
       <c r="D14" s="1"/>
-      <c r="E14" s="17" t="s">
+      <c r="E14" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="18"/>
-      <c r="I14" s="18"/>
-      <c r="J14" s="28"/>
-      <c r="K14" s="18"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="29"/>
+      <c r="H14" s="29"/>
+      <c r="I14" s="29"/>
+      <c r="J14" s="45"/>
+      <c r="K14" s="29"/>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -1170,129 +1170,129 @@
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
     </row>
-    <row r="15" spans="4:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="4:17" ht="15.75" customHeight="1">
       <c r="D15" s="4"/>
       <c r="E15" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F15" s="29" t="s">
+      <c r="F15" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="G15" s="19"/>
-      <c r="H15" s="29" t="s">
+      <c r="G15" s="30"/>
+      <c r="H15" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="I15" s="19"/>
-      <c r="J15" s="29" t="s">
+      <c r="I15" s="30"/>
+      <c r="J15" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="K15" s="19"/>
-      <c r="L15" s="29" t="s">
+      <c r="K15" s="30"/>
+      <c r="L15" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="M15" s="18"/>
-      <c r="N15" s="19"/>
+      <c r="M15" s="29"/>
+      <c r="N15" s="30"/>
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
       <c r="Q15" s="1"/>
     </row>
-    <row r="16" spans="4:17" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="4:17" ht="33.75" customHeight="1">
       <c r="D16" s="4"/>
       <c r="E16" s="13">
         <v>0.1</v>
       </c>
-      <c r="F16" s="30">
-        <v>44881</v>
-      </c>
-      <c r="G16" s="31"/>
-      <c r="H16" s="32" t="s">
+      <c r="F16" s="37">
+        <v>44880</v>
+      </c>
+      <c r="G16" s="35"/>
+      <c r="H16" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="I16" s="31"/>
-      <c r="J16" s="33"/>
-      <c r="K16" s="31"/>
-      <c r="L16" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="M16" s="35"/>
-      <c r="N16" s="31"/>
+      <c r="I16" s="35"/>
+      <c r="J16" s="36"/>
+      <c r="K16" s="35"/>
+      <c r="L16" s="41" t="s">
+        <v>51</v>
+      </c>
+      <c r="M16" s="42"/>
+      <c r="N16" s="35"/>
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
     </row>
-    <row r="17" spans="4:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:17" ht="24.75" customHeight="1">
       <c r="D17" s="4"/>
       <c r="E17" s="13">
         <v>0.2</v>
       </c>
-      <c r="F17" s="30">
-        <v>44882</v>
-      </c>
-      <c r="G17" s="31"/>
-      <c r="H17" s="36" t="s">
+      <c r="F17" s="37">
+        <v>44880</v>
+      </c>
+      <c r="G17" s="35"/>
+      <c r="H17" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="I17" s="31"/>
-      <c r="J17" s="33"/>
-      <c r="K17" s="31"/>
-      <c r="L17" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="M17" s="35"/>
-      <c r="N17" s="31"/>
+      <c r="I17" s="35"/>
+      <c r="J17" s="36"/>
+      <c r="K17" s="35"/>
+      <c r="L17" s="41" t="s">
+        <v>52</v>
+      </c>
+      <c r="M17" s="42"/>
+      <c r="N17" s="35"/>
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
     </row>
-    <row r="18" spans="4:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:17" ht="32.25" customHeight="1">
       <c r="D18" s="4"/>
       <c r="E18" s="14">
         <v>0.3</v>
       </c>
-      <c r="F18" s="30">
-        <v>44882</v>
-      </c>
-      <c r="G18" s="31"/>
-      <c r="H18" s="36" t="s">
+      <c r="F18" s="37">
+        <v>44881</v>
+      </c>
+      <c r="G18" s="35"/>
+      <c r="H18" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="I18" s="31"/>
-      <c r="J18" s="33"/>
-      <c r="K18" s="31"/>
-      <c r="L18" s="37" t="s">
-        <v>50</v>
-      </c>
-      <c r="M18" s="38"/>
-      <c r="N18" s="39"/>
+      <c r="I18" s="35"/>
+      <c r="J18" s="36"/>
+      <c r="K18" s="35"/>
+      <c r="L18" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="M18" s="39"/>
+      <c r="N18" s="40"/>
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
     </row>
-    <row r="19" spans="4:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:17" ht="24.75" customHeight="1">
       <c r="D19" s="4"/>
       <c r="E19" s="14">
         <v>0.4</v>
       </c>
-      <c r="F19" s="30">
-        <v>44883</v>
-      </c>
-      <c r="G19" s="31"/>
-      <c r="H19" s="36" t="s">
+      <c r="F19" s="37">
+        <v>44881</v>
+      </c>
+      <c r="G19" s="35"/>
+      <c r="H19" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="I19" s="31"/>
-      <c r="J19" s="33"/>
-      <c r="K19" s="31"/>
-      <c r="L19" s="34" t="s">
-        <v>51</v>
-      </c>
-      <c r="M19" s="35"/>
-      <c r="N19" s="31"/>
+      <c r="I19" s="35"/>
+      <c r="J19" s="36"/>
+      <c r="K19" s="35"/>
+      <c r="L19" s="41" t="s">
+        <v>50</v>
+      </c>
+      <c r="M19" s="42"/>
+      <c r="N19" s="35"/>
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
       <c r="Q19" s="1"/>
     </row>
-    <row r="20" spans="4:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="4:17" ht="15.75" customHeight="1">
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
@@ -1308,7 +1308,7 @@
       <c r="P20" s="1"/>
       <c r="Q20" s="1"/>
     </row>
-    <row r="21" spans="4:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="4:17" ht="15.75" customHeight="1">
       <c r="D21" s="1"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
@@ -1324,149 +1324,149 @@
       <c r="P21" s="2"/>
       <c r="Q21" s="1"/>
     </row>
-    <row r="22" spans="4:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="4:17" ht="15.75" customHeight="1">
       <c r="D22" s="4"/>
-      <c r="E22" s="40" t="s">
+      <c r="E22" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="F22" s="18"/>
-      <c r="G22" s="18"/>
-      <c r="H22" s="18"/>
-      <c r="I22" s="18"/>
-      <c r="J22" s="18"/>
-      <c r="K22" s="18"/>
-      <c r="L22" s="18"/>
-      <c r="M22" s="18"/>
-      <c r="N22" s="18"/>
-      <c r="O22" s="18"/>
-      <c r="P22" s="19"/>
+      <c r="F22" s="29"/>
+      <c r="G22" s="29"/>
+      <c r="H22" s="29"/>
+      <c r="I22" s="29"/>
+      <c r="J22" s="29"/>
+      <c r="K22" s="29"/>
+      <c r="L22" s="29"/>
+      <c r="M22" s="29"/>
+      <c r="N22" s="29"/>
+      <c r="O22" s="29"/>
+      <c r="P22" s="30"/>
       <c r="Q22" s="1"/>
     </row>
-    <row r="23" spans="4:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="4:17" ht="15">
       <c r="D23" s="4"/>
-      <c r="E23" s="40" t="s">
+      <c r="E23" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="F23" s="18"/>
-      <c r="G23" s="18"/>
-      <c r="H23" s="18"/>
-      <c r="I23" s="18"/>
-      <c r="J23" s="18"/>
-      <c r="K23" s="18"/>
-      <c r="L23" s="18"/>
-      <c r="M23" s="18"/>
-      <c r="N23" s="18"/>
-      <c r="O23" s="18"/>
-      <c r="P23" s="19"/>
+      <c r="F23" s="29"/>
+      <c r="G23" s="29"/>
+      <c r="H23" s="29"/>
+      <c r="I23" s="29"/>
+      <c r="J23" s="29"/>
+      <c r="K23" s="29"/>
+      <c r="L23" s="29"/>
+      <c r="M23" s="29"/>
+      <c r="N23" s="29"/>
+      <c r="O23" s="29"/>
+      <c r="P23" s="30"/>
       <c r="Q23" s="1"/>
     </row>
-    <row r="24" spans="4:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="4:17" ht="15">
       <c r="D24" s="4"/>
-      <c r="E24" s="40" t="s">
+      <c r="E24" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="F24" s="18"/>
-      <c r="G24" s="18"/>
-      <c r="H24" s="18"/>
-      <c r="I24" s="18"/>
-      <c r="J24" s="18"/>
-      <c r="K24" s="18"/>
-      <c r="L24" s="18"/>
-      <c r="M24" s="18"/>
-      <c r="N24" s="18"/>
-      <c r="O24" s="18"/>
-      <c r="P24" s="19"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="29"/>
+      <c r="H24" s="29"/>
+      <c r="I24" s="29"/>
+      <c r="J24" s="29"/>
+      <c r="K24" s="29"/>
+      <c r="L24" s="29"/>
+      <c r="M24" s="29"/>
+      <c r="N24" s="29"/>
+      <c r="O24" s="29"/>
+      <c r="P24" s="30"/>
       <c r="Q24" s="1"/>
     </row>
-    <row r="25" spans="4:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="4:17" ht="15">
       <c r="D25" s="4"/>
-      <c r="E25" s="40" t="s">
+      <c r="E25" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="F25" s="18"/>
-      <c r="G25" s="18"/>
-      <c r="H25" s="18"/>
-      <c r="I25" s="18"/>
-      <c r="J25" s="18"/>
-      <c r="K25" s="18"/>
-      <c r="L25" s="18"/>
-      <c r="M25" s="18"/>
-      <c r="N25" s="18"/>
-      <c r="O25" s="18"/>
-      <c r="P25" s="19"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="29"/>
+      <c r="H25" s="29"/>
+      <c r="I25" s="29"/>
+      <c r="J25" s="29"/>
+      <c r="K25" s="29"/>
+      <c r="L25" s="29"/>
+      <c r="M25" s="29"/>
+      <c r="N25" s="29"/>
+      <c r="O25" s="29"/>
+      <c r="P25" s="30"/>
       <c r="Q25" s="1"/>
     </row>
-    <row r="26" spans="4:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="4:17" ht="15">
       <c r="D26" s="4"/>
-      <c r="E26" s="40" t="s">
+      <c r="E26" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="F26" s="18"/>
-      <c r="G26" s="18"/>
-      <c r="H26" s="18"/>
-      <c r="I26" s="18"/>
-      <c r="J26" s="18"/>
-      <c r="K26" s="18"/>
-      <c r="L26" s="18"/>
-      <c r="M26" s="18"/>
-      <c r="N26" s="18"/>
-      <c r="O26" s="18"/>
-      <c r="P26" s="19"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="29"/>
+      <c r="H26" s="29"/>
+      <c r="I26" s="29"/>
+      <c r="J26" s="29"/>
+      <c r="K26" s="29"/>
+      <c r="L26" s="29"/>
+      <c r="M26" s="29"/>
+      <c r="N26" s="29"/>
+      <c r="O26" s="29"/>
+      <c r="P26" s="30"/>
       <c r="Q26" s="1"/>
     </row>
-    <row r="27" spans="4:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="4:17" ht="15">
       <c r="D27" s="4"/>
-      <c r="E27" s="40" t="s">
+      <c r="E27" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="F27" s="18"/>
-      <c r="G27" s="18"/>
-      <c r="H27" s="18"/>
-      <c r="I27" s="18"/>
-      <c r="J27" s="18"/>
-      <c r="K27" s="18"/>
-      <c r="L27" s="18"/>
-      <c r="M27" s="18"/>
-      <c r="N27" s="18"/>
-      <c r="O27" s="18"/>
-      <c r="P27" s="19"/>
+      <c r="F27" s="29"/>
+      <c r="G27" s="29"/>
+      <c r="H27" s="29"/>
+      <c r="I27" s="29"/>
+      <c r="J27" s="29"/>
+      <c r="K27" s="29"/>
+      <c r="L27" s="29"/>
+      <c r="M27" s="29"/>
+      <c r="N27" s="29"/>
+      <c r="O27" s="29"/>
+      <c r="P27" s="30"/>
       <c r="Q27" s="1"/>
     </row>
-    <row r="28" spans="4:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="4:17" ht="15">
       <c r="D28" s="4"/>
-      <c r="E28" s="41" t="s">
+      <c r="E28" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="F28" s="16"/>
-      <c r="G28" s="16"/>
-      <c r="H28" s="16"/>
-      <c r="I28" s="16"/>
-      <c r="J28" s="16"/>
-      <c r="K28" s="16"/>
-      <c r="L28" s="16"/>
-      <c r="M28" s="16"/>
-      <c r="N28" s="16"/>
-      <c r="O28" s="16"/>
-      <c r="P28" s="42"/>
+      <c r="F28" s="32"/>
+      <c r="G28" s="32"/>
+      <c r="H28" s="32"/>
+      <c r="I28" s="32"/>
+      <c r="J28" s="32"/>
+      <c r="K28" s="32"/>
+      <c r="L28" s="32"/>
+      <c r="M28" s="32"/>
+      <c r="N28" s="32"/>
+      <c r="O28" s="32"/>
+      <c r="P28" s="33"/>
       <c r="Q28" s="1"/>
     </row>
-    <row r="29" spans="4:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="4:17" ht="15">
       <c r="D29" s="4"/>
-      <c r="E29" s="18"/>
-      <c r="F29" s="18"/>
-      <c r="G29" s="18"/>
-      <c r="H29" s="18"/>
-      <c r="I29" s="18"/>
-      <c r="J29" s="18"/>
-      <c r="K29" s="18"/>
-      <c r="L29" s="18"/>
-      <c r="M29" s="18"/>
-      <c r="N29" s="18"/>
-      <c r="O29" s="18"/>
-      <c r="P29" s="19"/>
+      <c r="E29" s="29"/>
+      <c r="F29" s="29"/>
+      <c r="G29" s="29"/>
+      <c r="H29" s="29"/>
+      <c r="I29" s="29"/>
+      <c r="J29" s="29"/>
+      <c r="K29" s="29"/>
+      <c r="L29" s="29"/>
+      <c r="M29" s="29"/>
+      <c r="N29" s="29"/>
+      <c r="O29" s="29"/>
+      <c r="P29" s="30"/>
       <c r="Q29" s="1"/>
     </row>
-    <row r="30" spans="4:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="30" spans="4:17" ht="15">
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
@@ -1484,6 +1484,37 @@
     </row>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="E4:N5"/>
+    <mergeCell ref="E7:I7"/>
+    <mergeCell ref="J7:P7"/>
+    <mergeCell ref="E8:I8"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="E9:I9"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="E10:I10"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="E11:I11"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="E14:I14"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="L15:N15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="L16:N16"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="L17:N17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="L18:N18"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="L19:N19"/>
     <mergeCell ref="E27:P27"/>
     <mergeCell ref="E28:P29"/>
     <mergeCell ref="H19:I19"/>
@@ -1493,37 +1524,6 @@
     <mergeCell ref="E24:P24"/>
     <mergeCell ref="E25:P25"/>
     <mergeCell ref="E26:P26"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="L18:N18"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="L19:N19"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="L16:N16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="L17:N17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="E14:I14"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="L15:N15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="E9:I9"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="E10:I10"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="E11:I11"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="E4:N5"/>
-    <mergeCell ref="E7:I7"/>
-    <mergeCell ref="J7:P7"/>
-    <mergeCell ref="E8:I8"/>
-    <mergeCell ref="J8:P8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1537,11 +1537,11 @@
   </sheetPr>
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:B8"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="27.5703125" customWidth="1"/>
     <col min="2" max="2" width="31.140625" customWidth="1"/>
@@ -1549,196 +1549,196 @@
     <col min="4" max="4" width="43.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="42.75" customHeight="1" thickBot="1">
       <c r="A1" s="6"/>
-      <c r="B1" s="43" t="s">
+      <c r="B1" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="44" t="s">
+      <c r="C1" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="D1" s="17"/>
+    </row>
+    <row r="2" spans="1:4" ht="25.5" customHeight="1" thickBot="1">
+      <c r="A2" s="7"/>
+      <c r="B2" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="45"/>
-    </row>
-    <row r="2" spans="1:4" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="7"/>
-      <c r="B2" s="46" t="s">
+      <c r="C2" s="65" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="65" t="s">
+      <c r="D2" s="65" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="65" t="s">
+    </row>
+    <row r="3" spans="1:4" ht="42" customHeight="1" thickBot="1">
+      <c r="A3" s="8"/>
+      <c r="B3" s="19" t="s">
         <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="8"/>
-      <c r="B3" s="47" t="s">
-        <v>30</v>
       </c>
       <c r="C3" s="66"/>
       <c r="D3" s="66"/>
     </row>
-    <row r="4" spans="1:4" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="48.75" customHeight="1" thickBot="1">
       <c r="A4" s="9"/>
-      <c r="B4" s="59" t="s">
+      <c r="B4" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="48.75" customHeight="1" thickBot="1">
+      <c r="A5" s="9"/>
+      <c r="B5" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="48" t="s">
+      <c r="D5" s="21" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="26.25" customHeight="1">
+      <c r="A6" s="10"/>
+      <c r="B6" s="56" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="58" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="26.25" customHeight="1">
+      <c r="A7" s="10"/>
+      <c r="B7" s="57"/>
+      <c r="C7" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="58"/>
+    </row>
+    <row r="8" spans="1:4" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A8" s="10"/>
+      <c r="B8" s="57"/>
+      <c r="C8" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8" s="58"/>
+    </row>
+    <row r="9" spans="1:4" ht="37.5">
+      <c r="A9" s="9"/>
+      <c r="B9" s="59" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="D4" s="49" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="9"/>
-      <c r="B5" s="59" t="s">
+      <c r="D9" s="62" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="48" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5" s="49" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="10"/>
-      <c r="B6" s="60" t="s">
-        <v>35</v>
-      </c>
-      <c r="C6" s="50" t="s">
-        <v>36</v>
-      </c>
-      <c r="D6" s="51" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="10"/>
-      <c r="B7" s="61"/>
-      <c r="C7" s="50" t="s">
-        <v>37</v>
-      </c>
-      <c r="D7" s="51"/>
-    </row>
-    <row r="8" spans="1:4" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="10"/>
-      <c r="B8" s="61"/>
-      <c r="C8" s="50" t="s">
-        <v>54</v>
-      </c>
-      <c r="D8" s="51"/>
-    </row>
-    <row r="9" spans="1:4" ht="37.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="9"/>
-      <c r="B9" s="62" t="s">
+    </row>
+    <row r="10" spans="1:4" ht="65.25" customHeight="1">
+      <c r="A10" s="9"/>
+      <c r="B10" s="60"/>
+      <c r="C10" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="D10" s="63"/>
+    </row>
+    <row r="11" spans="1:4" ht="54" customHeight="1" thickBot="1">
+      <c r="A11" s="9"/>
+      <c r="B11" s="61"/>
+      <c r="C11" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="D11" s="64"/>
+    </row>
+    <row r="12" spans="1:4" ht="116.25" customHeight="1" thickBot="1">
+      <c r="A12" s="11"/>
+      <c r="B12" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="53" t="s">
-        <v>56</v>
-      </c>
-      <c r="D9" s="52" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="9"/>
-      <c r="B10" s="63"/>
-      <c r="C10" s="55" t="s">
-        <v>62</v>
-      </c>
-      <c r="D10" s="54"/>
-    </row>
-    <row r="11" spans="1:4" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="9"/>
-      <c r="B11" s="64"/>
-      <c r="C11" s="57" t="s">
+      <c r="C12" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12" s="26" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="73.5" customHeight="1" thickBot="1">
+      <c r="A13" s="11"/>
+      <c r="B13" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" s="26" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="57" customHeight="1" thickBot="1">
+      <c r="A14" s="11"/>
+      <c r="B14" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" s="26" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="63.75" customHeight="1" thickBot="1">
+      <c r="A15" s="11"/>
+      <c r="B15" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" s="26" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" s="12" customFormat="1" ht="63.75" customHeight="1" thickBot="1">
+      <c r="A16" s="11"/>
+      <c r="B16" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="D11" s="56"/>
-    </row>
-    <row r="12" spans="1:4" ht="116.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="11"/>
-      <c r="B12" s="59" t="s">
-        <v>39</v>
-      </c>
-      <c r="C12" s="48" t="s">
+      <c r="D16" s="26" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" ht="47.25" customHeight="1" thickBot="1">
+      <c r="B17" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="D17" s="26" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" ht="47.25" customHeight="1" thickBot="1">
+      <c r="B18" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="D12" s="58" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="73.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="11"/>
-      <c r="B13" s="59" t="s">
-        <v>40</v>
-      </c>
-      <c r="C13" s="48" t="s">
-        <v>42</v>
-      </c>
-      <c r="D13" s="58" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="11"/>
-      <c r="B14" s="59" t="s">
-        <v>41</v>
-      </c>
-      <c r="C14" s="48" t="s">
-        <v>45</v>
-      </c>
-      <c r="D14" s="58" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="11"/>
-      <c r="B15" s="59" t="s">
-        <v>44</v>
-      </c>
-      <c r="C15" s="48" t="s">
-        <v>47</v>
-      </c>
-      <c r="D15" s="58" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" s="12" customFormat="1" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="11"/>
-      <c r="B16" s="59" t="s">
-        <v>46</v>
-      </c>
-      <c r="C16" s="48" t="s">
-        <v>58</v>
-      </c>
-      <c r="D16" s="58" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="59" t="s">
-        <v>48</v>
-      </c>
-      <c r="C17" s="48" t="s">
-        <v>49</v>
-      </c>
-      <c r="D17" s="58" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="59" t="s">
+      <c r="C18" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="C18" s="48" t="s">
-        <v>61</v>
-      </c>
-      <c r="D18" s="58" t="s">
-        <v>34</v>
+      <c r="D18" s="26" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
